--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3675925.667394272</v>
+        <v>3673674.849008377</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>52.82290122762556</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>71.13219726967645</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>127.8819313525581</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,13 +944,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599758</v>
       </c>
       <c r="D8" t="n">
-        <v>289.570773112779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586857</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.9212967840871</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.26879610204017</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.69387841119151</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15.0743711067586</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604496</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.42081039547512</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>84.69473660442802</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>17.15794421524323</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>7.601081015446642</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534541</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.68984412497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>32.52207646038678</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>17.19701978441002</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.4425172951287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>7.288703683846677</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>117.0247149940947</v>
       </c>
       <c r="G34" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>35.52782197061602</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767762</v>
+        <v>257.8155051767763</v>
       </c>
       <c r="V34" t="n">
         <v>223.7413102949914</v>
@@ -3250,7 +3250,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X34" t="n">
-        <v>197.3133223602005</v>
+        <v>197.3133223602006</v>
       </c>
       <c r="Y34" t="n">
         <v>190.1883203232582</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>26.03456888002317</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697913</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>117.0247149940947</v>
       </c>
       <c r="G37" t="n">
-        <v>132.3390119256494</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.53581964121075</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3478,7 +3478,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8155051767762</v>
+        <v>257.8155051767763</v>
       </c>
       <c r="V37" t="n">
         <v>223.7413102949914</v>
@@ -3487,7 +3487,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>190.1883203232582</v>
@@ -3661,25 +3661,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.8504880697913</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>116.2545588574935</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.5358196412107</v>
+        <v>60.53581964121075</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3715,7 +3715,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767762</v>
+        <v>257.8155051767763</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3724,10 +3724,10 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.3133223602006</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.4185901305965</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>28.70662586403379</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
         <v>67.95608738100145</v>
@@ -3964,7 +3964,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>15.71514184780091</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,25 +4135,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>51.19843204834148</v>
+        <v>138.8504880697913</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893758</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121069</v>
+        <v>60.53581964121075</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
@@ -4195,10 +4195,10 @@
         <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077544</v>
+        <v>254.1620841758721</v>
       </c>
       <c r="X46" t="n">
-        <v>197.3133223602005</v>
+        <v>197.3133223602006</v>
       </c>
       <c r="Y46" t="n">
         <v>190.1883203232582</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.515311311824</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1275.524362591492</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C8" t="n">
-        <v>906.5618456510801</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655614</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.124202655614</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,13 +5024,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5200,19 +5200,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,7 +5221,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783404</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413798</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433625</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.8664332433625</v>
+        <v>171.0738540998326</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.904311342305</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="C16" t="n">
-        <v>260.904311342305</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="D16" t="n">
-        <v>260.904311342305</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>252.1734574999395</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>252.1734574999395</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5440,10 +5440,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208131</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838525</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858352</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.904311342305</v>
+        <v>399.0634049978498</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5519,22 +5519,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522032</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423045</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423045</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>110.7876719299688</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>110.7876719299688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>110.7876719299688</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,22 +5671,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>709.686441383852</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858346</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423045</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5783,13 +5783,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839437</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839437</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839437</v>
+        <v>463.5164092615011</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839445</v>
+        <v>315.6033156791079</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811976</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811976</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811976</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718542</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>613.6330486738368</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,13 +5972,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,34 +5987,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
         <v>4461.783306331037</v>
@@ -6023,16 +6023,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736755</v>
+        <v>210.217968413123</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736755</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1948.665606493141</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1726.898991062667</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454628</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474454</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039153</v>
+        <v>391.8664332433627</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,10 +6212,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622689</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839445</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
+        <v>245.6776738607302</v>
+      </c>
+      <c r="D28" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="D28" t="n">
-        <v>95.56103444839437</v>
-      </c>
       <c r="E28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208118</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W28" t="n">
-        <v>709.686441383851</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858337</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423036</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6473,16 +6473,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1657.456397634098</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1368.353530759742</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1113.669042553855</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364129</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2883.993034926782</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3763.957685256237</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,16 +6780,16 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,13 +6816,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>665.5562796931933</v>
+        <v>625.4381290929587</v>
       </c>
       <c r="C34" t="n">
-        <v>665.5562796931933</v>
+        <v>625.4381290929587</v>
       </c>
       <c r="D34" t="n">
-        <v>658.1939527398129</v>
+        <v>625.4381290929587</v>
       </c>
       <c r="E34" t="n">
-        <v>538.9640238330123</v>
+        <v>506.2082001861586</v>
       </c>
       <c r="F34" t="n">
-        <v>420.7572410106946</v>
+        <v>388.0014173638407</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610062</v>
+        <v>248.9817454141522</v>
       </c>
       <c r="H34" t="n">
-        <v>164.2035469544565</v>
+        <v>131.4477233076025</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M34" t="n">
         <v>1117.837172686444</v>
@@ -6877,7 +6877,7 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
@@ -6886,22 +6886,22 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>1957.092411628629</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
-        <v>1696.672709429865</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1470.671385899571</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.937380538203</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>1010.630994315778</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y34" t="n">
-        <v>818.5215798478405</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6944,19 +6944,19 @@
         <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2750.97154338438</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6965,16 +6965,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7014,19 +7014,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.961311426849</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.6201215051921</v>
+        <v>798.4469709921276</v>
       </c>
       <c r="C37" t="n">
-        <v>533.6201215051921</v>
+        <v>658.1939527398132</v>
       </c>
       <c r="D37" t="n">
-        <v>533.6201215051921</v>
+        <v>658.1939527398132</v>
       </c>
       <c r="E37" t="n">
-        <v>533.6201215051921</v>
+        <v>538.9640238330126</v>
       </c>
       <c r="F37" t="n">
-        <v>415.4133386828743</v>
+        <v>420.7572410106948</v>
       </c>
       <c r="G37" t="n">
         <v>281.7375690610062</v>
       </c>
       <c r="H37" t="n">
-        <v>164.2035469544565</v>
+        <v>164.2035469544566</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7099,10 +7099,10 @@
         <v>400.8955892413028</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N37" t="n">
         <v>1487.357919090858</v>
@@ -7114,31 +7114,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R37" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>2018.239704195509</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T37" t="n">
-        <v>1825.156253440628</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U37" t="n">
-        <v>1564.736551241864</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V37" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>878.6948361277766</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.585421659839</v>
+        <v>824.7445153153833</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>301.7164587107651</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>956.4397908460646</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422504</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3697.97444730184</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.627427476556</v>
+        <v>472.4728289383111</v>
       </c>
       <c r="C40" t="n">
-        <v>779.627427476556</v>
+        <v>332.2198106859968</v>
       </c>
       <c r="D40" t="n">
-        <v>658.1939527398129</v>
+        <v>332.2198106859968</v>
       </c>
       <c r="E40" t="n">
-        <v>538.9640238330123</v>
+        <v>212.9898817791961</v>
       </c>
       <c r="F40" t="n">
-        <v>420.7572410106946</v>
+        <v>212.9898817791961</v>
       </c>
       <c r="G40" t="n">
-        <v>281.7375690610061</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K40" t="n">
         <v>400.8955892413028</v>
       </c>
       <c r="L40" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
         <v>1117.837172686444</v>
@@ -7345,25 +7345,25 @@
         <v>1487.357919090857</v>
       </c>
       <c r="O40" t="n">
-        <v>1814.799887709819</v>
+        <v>1814.799887709818</v>
       </c>
       <c r="P40" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R40" t="n">
         <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U40" t="n">
-        <v>1503.589258674984</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V40" t="n">
         <v>1277.587935144689</v>
@@ -7372,10 +7372,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.853929783321</v>
+        <v>817.547543560896</v>
       </c>
       <c r="Y40" t="n">
-        <v>932.5927276312033</v>
+        <v>625.4381290929583</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383117</v>
+        <v>801.6736629065525</v>
       </c>
       <c r="C43" t="n">
-        <v>332.2198106859973</v>
+        <v>661.4206446542383</v>
       </c>
       <c r="D43" t="n">
-        <v>332.2198106859973</v>
+        <v>539.9871699174952</v>
       </c>
       <c r="E43" t="n">
-        <v>332.2198106859973</v>
+        <v>420.7572410106946</v>
       </c>
       <c r="F43" t="n">
-        <v>332.2198106859973</v>
+        <v>420.7572410106946</v>
       </c>
       <c r="G43" t="n">
-        <v>193.2001387363089</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H43" t="n">
         <v>164.2035469544565</v>
@@ -7567,10 +7567,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938781</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L43" t="n">
         <v>745.5677573883472</v>
@@ -7603,16 +7603,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608964</v>
+        <v>817.5475435608969</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929589</v>
+        <v>801.6736629065525</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7637,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383123</v>
+        <v>476.4774563442526</v>
       </c>
       <c r="C46" t="n">
-        <v>420.7572410106947</v>
+        <v>336.2244380919382</v>
       </c>
       <c r="D46" t="n">
-        <v>420.7572410106947</v>
+        <v>214.790963355195</v>
       </c>
       <c r="E46" t="n">
-        <v>420.7572410106947</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>420.7572410106947</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>281.7375690610062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,49 +7807,49 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R46" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.095131126209</v>
       </c>
       <c r="S46" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.589258674984</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
-        <v>1016.853929783322</v>
+        <v>1020.858557189262</v>
       </c>
       <c r="X46" t="n">
-        <v>817.5475435608971</v>
+        <v>821.5521709668374</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929595</v>
+        <v>629.4427564988998</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="O14" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9167,25 +9167,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>295.4822118493981</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>96.13798426930737</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>82.70159106555684</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>249.451501837948</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>248.8400772687157</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>17.45080131651034</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>5.284192235662204</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704383</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.91068339785015</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.165166544529</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>86.06113650312928</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>150.9514371522696</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.67627119164518</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>23.93161001436297</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>182.1679443159953</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696727</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>253.6897617452261</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>202.3519294917592</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.14213605696605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>138.8504880697913</v>
       </c>
       <c r="D34" t="n">
-        <v>112.930436305529</v>
+        <v>120.2191399893758</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>32.42826541038547</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473326</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>125.4010782730775</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>120.2191399893758</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>5.290463304542186</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.3133223602006</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893758</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940947</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>21.37491637269812</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.7697301926617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>87.65205602145035</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>174.4731784754572</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>87.65205602144974</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893758</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940947</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.964581131882355</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409187</v>
       </c>
       <c r="F2" t="n">
-        <v>734601.3057409188</v>
+        <v>734601.305740919</v>
       </c>
       <c r="G2" t="n">
+        <v>734601.3057409187</v>
+      </c>
+      <c r="H2" t="n">
         <v>734601.305740919</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>734601.3057409191</v>
       </c>
-      <c r="I2" t="n">
-        <v>734601.3057409188</v>
-      </c>
       <c r="J2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.3057409188</v>
+        <v>734601.3057409187</v>
       </c>
       <c r="L2" t="n">
         <v>749630.5125226396</v>
       </c>
       <c r="M2" t="n">
-        <v>749630.5125226395</v>
+        <v>749630.5125226394</v>
       </c>
       <c r="N2" t="n">
+        <v>749630.512522639</v>
+      </c>
+      <c r="O2" t="n">
         <v>749630.5125226392</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>749630.5125226394</v>
-      </c>
-      <c r="P2" t="n">
-        <v>749630.5125226398</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.912744978496981e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306911</v>
+        <v>22717.06642306944</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
@@ -26430,34 +26430,34 @@
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="H4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
+        <v>27492.30103190627</v>
+      </c>
+      <c r="M4" t="n">
+        <v>27492.30103190627</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27492.30103190626</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27492.30103190627</v>
+      </c>
+      <c r="P4" t="n">
         <v>27492.3010319063</v>
-      </c>
-      <c r="M4" t="n">
-        <v>27492.30103190625</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27492.30103190627</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27492.30103190629</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27492.30103190627</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26497,7 +26497,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>98770.76957511491</v>
+        <v>98770.76957511493</v>
       </c>
       <c r="M5" t="n">
         <v>98770.76957511491</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061977</v>
+        <v>-96712.00701061959</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.872203925</v>
+        <v>493255.8722039248</v>
       </c>
       <c r="D6" t="n">
-        <v>493255.872203925</v>
+        <v>493255.8722039248</v>
       </c>
       <c r="E6" t="n">
-        <v>-107308.1188253908</v>
+        <v>-107375.3143156175</v>
       </c>
       <c r="F6" t="n">
-        <v>620069.2951680151</v>
+        <v>620002.0996777896</v>
       </c>
       <c r="G6" t="n">
-        <v>620069.2951680154</v>
+        <v>620002.0996777894</v>
       </c>
       <c r="H6" t="n">
-        <v>620069.2951680155</v>
+        <v>620002.0996777896</v>
       </c>
       <c r="I6" t="n">
-        <v>620069.2951680153</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="J6" t="n">
-        <v>443646.0759754227</v>
+        <v>443578.8804851968</v>
       </c>
       <c r="K6" t="n">
-        <v>620069.2951680151</v>
+        <v>620002.0996777894</v>
       </c>
       <c r="L6" t="n">
-        <v>600650.3754925493</v>
+        <v>600623.7994801116</v>
       </c>
       <c r="M6" t="n">
-        <v>493725.1270766733</v>
+        <v>493698.5510642362</v>
       </c>
       <c r="N6" t="n">
-        <v>623367.441915618</v>
+        <v>623340.8659031804</v>
       </c>
       <c r="O6" t="n">
-        <v>623367.4419156181</v>
+        <v>623340.8659031807</v>
       </c>
       <c r="P6" t="n">
-        <v>623367.4419156183</v>
+        <v>623340.8659031809</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,31 +26966,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>312.449990543382</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>75.30176537689272</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>237.3909604184494</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110317</v>
       </c>
       <c r="D8" t="n">
-        <v>65.11226850790393</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.116189327207012e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883659</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="C46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="D46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="E46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="F46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="G46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="H46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="I46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="J46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="K46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="L46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="M46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="N46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="O46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="P46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="R46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="S46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="T46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="U46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="V46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="W46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="X46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.3963330288366</v>
+        <v>28.39633302883659</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002915</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>906.0660702419976</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35808,7 +35808,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35887,25 +35887,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>751.0723262417303</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>635.0591000995341</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,22 +36364,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>635.0034264784683</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.3942385378936</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>802.9237881683838</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>648.21348805732</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37312,22 +37312,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>787.7611930989425</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190282</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37470,16 +37470,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>208.2378022852229</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>502.5482327048862</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190282</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37707,16 +37707,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M40" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q40" t="n">
         <v>106.7905715667303</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37786,16 +37786,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>404.0461784550341</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37941,13 +37941,13 @@
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>466.2986239864155</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859612</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190287</v>
+        <v>73.97474964190279</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514763</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.7905715667303</v>
+        <v>106.7905715667302</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
